--- a/medicine/Enfance/Ian_Wallace_(illustrateur)/Ian_Wallace_(illustrateur).xlsx
+++ b/medicine/Enfance/Ian_Wallace_(illustrateur)/Ian_Wallace_(illustrateur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ian Wallace, né le 31 mars 1950 à Niagara Falls en Ontario, est un auteur et illustrateur canadien de livres pour enfants.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né en 1950 à Niagara Falls en Ontario, il a étudié à l'Université de l'École d'art et de design de l'Ontario.
 </t>
@@ -544,7 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Auteur et illustrateur
+          <t>Auteur et illustrateur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 The Sleeping Porch (Groundwood Books, Jul 2008)
 The Huron Carol (Groundwood, Aug 2006)
 The Man Who Walked the Earth (Groundwood, Aug 2003)
@@ -556,11 +576,47 @@
 Mr. Kneebone's New Digs (Douglas &amp; McIntyre, Feb 1991)
 Morgan the Magnificent (Margaret K. McElderry, Jun 1987)
 Chin Chiang and the Dragon's Dance (Groundwood, Nov 1984)
-Illustrateur
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ian_Wallace_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ian_Wallace_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustrateur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Sarah and the People of Sand River,  by W. D. Valgardson (Groundwood, Aug 1996)
-Hansel and Gretel, (Groundwood, Mar 1996), from the Brothers Grimm tale "Hansel and Gretel" [1812]
+Hansel and Gretel, (Groundwood, Mar 1996), from the Brothers Grimm tale "Hansel and Gretel" 
 The Mummer's Song, by Bud Davidge (1993)
-The Name of the Tree: A Bantu Tale Retold, by Celia Barker Lottridge (1989)[1]
+The Name of the Tree: A Bantu Tale Retold, by Celia Barker Lottridge (1989)
 Architect of the Moon, by Tim Wynne-Jones (Groundwood, 1988)
 Very Last First Time, by Jan Andrews (1985)
 The Sandwich, with Angela Wood (Kids Can, 1975)
@@ -569,34 +625,36 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Ian_Wallace_(illustrateur)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ian_Wallace_(illustrateur)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1986 : (international) « Honour List »[2] de l' IBBY, catégorie Illustration, pour ''Chin Chiang and the Dragon's Dance, qu'il a également écrit
-2000 : (international) « Honour List »[3] de l' IBBY, catégorie Illustration, pour Boy of the Deeps, qu'il a également écrit</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1986 : (international) « Honour List » de l' IBBY, catégorie Illustration, pour ''Chin Chiang and the Dragon's Dance, qu'il a également écrit
+2000 : (international) « Honour List » de l' IBBY, catégorie Illustration, pour Boy of the Deeps, qu'il a également écrit</t>
         </is>
       </c>
     </row>
